--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.573058624100537</v>
+        <v>0.687091</v>
       </c>
       <c r="H2">
-        <v>0.573058624100537</v>
+        <v>1.374182</v>
       </c>
       <c r="I2">
-        <v>0.005618040064215539</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J2">
-        <v>0.005618040064215539</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188809412900946</v>
+        <v>0.320495</v>
       </c>
       <c r="N2">
-        <v>0.188809412900946</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O2">
-        <v>0.001765855969444405</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P2">
-        <v>0.001765855969444405</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q2">
-        <v>0.1081988623742463</v>
+        <v>0.220209230045</v>
       </c>
       <c r="R2">
-        <v>0.1081988623742463</v>
+        <v>0.88083692018</v>
       </c>
       <c r="S2">
-        <v>9.920649583972839E-06</v>
+        <v>1.796189329350101E-05</v>
       </c>
       <c r="T2">
-        <v>9.920649583972839E-06</v>
+        <v>8.145925959827638E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.573058624100537</v>
+        <v>0.687091</v>
       </c>
       <c r="H3">
-        <v>0.573058624100537</v>
+        <v>1.374182</v>
       </c>
       <c r="I3">
-        <v>0.005618040064215539</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J3">
-        <v>0.005618040064215539</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>47.4832128187357</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N3">
-        <v>47.4832128187357</v>
+        <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.4440907554135159</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P3">
-        <v>0.4440907554135159</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q3">
-        <v>27.21066460577766</v>
+        <v>0.007816118185666666</v>
       </c>
       <c r="R3">
-        <v>27.21066460577766</v>
+        <v>0.046896709114</v>
       </c>
       <c r="S3">
-        <v>0.002494919656060876</v>
+        <v>6.375404009706954E-07</v>
       </c>
       <c r="T3">
-        <v>0.002494919656060876</v>
+        <v>4.336978973635124E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.573058624100537</v>
+        <v>0.687091</v>
       </c>
       <c r="H4">
-        <v>0.573058624100537</v>
+        <v>1.374182</v>
       </c>
       <c r="I4">
-        <v>0.005618040064215539</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J4">
-        <v>0.005618040064215539</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.2502954250811</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N4">
-        <v>59.2502954250811</v>
+        <v>146.362926</v>
       </c>
       <c r="O4">
-        <v>0.5541433886170396</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P4">
-        <v>0.5541433886170396</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q4">
-        <v>33.95389277384731</v>
+        <v>33.52154972942201</v>
       </c>
       <c r="R4">
-        <v>33.95389277384731</v>
+        <v>201.129298376532</v>
       </c>
       <c r="S4">
-        <v>0.003113199758570689</v>
+        <v>0.00273426549445554</v>
       </c>
       <c r="T4">
-        <v>0.003113199758570689</v>
+        <v>0.001860031448945743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>92.9333797278603</v>
+        <v>0.687091</v>
       </c>
       <c r="H5">
-        <v>92.9333797278603</v>
+        <v>1.374182</v>
       </c>
       <c r="I5">
-        <v>0.911082092924716</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J5">
-        <v>0.911082092924716</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.188809412900946</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N5">
-        <v>0.188809412900946</v>
+        <v>178.849414</v>
       </c>
       <c r="O5">
-        <v>0.001765855969444405</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P5">
-        <v>0.001765855969444405</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q5">
-        <v>17.54669686531798</v>
+        <v>40.96194090489133</v>
       </c>
       <c r="R5">
-        <v>17.54669686531798</v>
+        <v>245.771645429348</v>
       </c>
       <c r="S5">
-        <v>0.001608839752445012</v>
+        <v>0.003341158821898611</v>
       </c>
       <c r="T5">
-        <v>0.001608839752445012</v>
+        <v>0.002272881143859594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.9333797278603</v>
+        <v>0.687091</v>
       </c>
       <c r="H6">
-        <v>92.9333797278603</v>
+        <v>1.374182</v>
       </c>
       <c r="I6">
-        <v>0.911082092924716</v>
+        <v>0.006109245136875069</v>
       </c>
       <c r="J6">
-        <v>0.911082092924716</v>
+        <v>0.004151846828623644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>47.4832128187357</v>
+        <v>0.271596</v>
       </c>
       <c r="N6">
-        <v>47.4832128187357</v>
+        <v>0.814788</v>
       </c>
       <c r="O6">
-        <v>0.4440907554135159</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P6">
-        <v>0.4440907554135159</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q6">
-        <v>4412.775447582369</v>
+        <v>0.186611167236</v>
       </c>
       <c r="R6">
-        <v>4412.775447582369</v>
+        <v>1.119667003416</v>
       </c>
       <c r="S6">
-        <v>0.4046031348906642</v>
+        <v>1.522138682644566E-05</v>
       </c>
       <c r="T6">
-        <v>0.4046031348906642</v>
+        <v>1.035461196111646E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,619 +838,1549 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.9333797278603</v>
+        <v>101.337382</v>
       </c>
       <c r="H7">
-        <v>92.9333797278603</v>
+        <v>304.012146</v>
       </c>
       <c r="I7">
-        <v>0.911082092924716</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J7">
-        <v>0.911082092924716</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.2502954250811</v>
+        <v>0.320495</v>
       </c>
       <c r="N7">
-        <v>59.2502954250811</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O7">
-        <v>0.5541433886170396</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P7">
-        <v>0.5541433886170396</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q7">
-        <v>5506.330203726966</v>
+        <v>32.47812424409</v>
       </c>
       <c r="R7">
-        <v>5506.330203726966</v>
+        <v>194.86874546454</v>
       </c>
       <c r="S7">
-        <v>0.5048701182816067</v>
+        <v>0.002649155995532979</v>
       </c>
       <c r="T7">
-        <v>0.5048701182816067</v>
+        <v>0.00180213423855378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.29352852446951</v>
+        <v>101.337382</v>
       </c>
       <c r="H8">
-        <v>1.29352852446951</v>
+        <v>304.012146</v>
       </c>
       <c r="I8">
-        <v>0.01268124196905967</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J8">
-        <v>0.01268124196905967</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.188809412900946</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N8">
-        <v>0.188809412900946</v>
+        <v>0.034127</v>
       </c>
       <c r="O8">
-        <v>0.001765855969444405</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P8">
-        <v>0.001765855969444405</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q8">
-        <v>0.2442303612757152</v>
+        <v>1.152780278504667</v>
       </c>
       <c r="R8">
-        <v>0.2442303612757152</v>
+        <v>10.375022506542</v>
       </c>
       <c r="S8">
-        <v>2.239324683103294E-05</v>
+        <v>9.402928455415734E-05</v>
       </c>
       <c r="T8">
-        <v>2.239324683103294E-05</v>
+        <v>9.594757353332323E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.29352852446951</v>
+        <v>101.337382</v>
       </c>
       <c r="H9">
-        <v>1.29352852446951</v>
+        <v>304.012146</v>
       </c>
       <c r="I9">
-        <v>0.01268124196905967</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J9">
-        <v>0.01268124196905967</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.4832128187357</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N9">
-        <v>47.4832128187357</v>
+        <v>146.362926</v>
       </c>
       <c r="O9">
-        <v>0.4440907554135159</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P9">
-        <v>0.4440907554135159</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q9">
-        <v>61.42089021449092</v>
+        <v>4944.011914233245</v>
       </c>
       <c r="R9">
-        <v>61.42089021449092</v>
+        <v>44496.10722809921</v>
       </c>
       <c r="S9">
-        <v>0.005631622325621291</v>
+        <v>0.4032701736757722</v>
       </c>
       <c r="T9">
-        <v>0.005631622325621291</v>
+        <v>0.4114972779598953</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.29352852446951</v>
+        <v>101.337382</v>
       </c>
       <c r="H10">
-        <v>1.29352852446951</v>
+        <v>304.012146</v>
       </c>
       <c r="I10">
-        <v>0.01268124196905967</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J10">
-        <v>0.01268124196905967</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.2502954250811</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N10">
-        <v>59.2502954250811</v>
+        <v>178.849414</v>
       </c>
       <c r="O10">
-        <v>0.5541433886170396</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P10">
-        <v>0.5541433886170396</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q10">
-        <v>76.64194721558772</v>
+        <v>6041.37712899805</v>
       </c>
       <c r="R10">
-        <v>76.64194721558772</v>
+        <v>54372.39416098245</v>
       </c>
       <c r="S10">
-        <v>0.007027226396607344</v>
+        <v>0.4927793958258942</v>
       </c>
       <c r="T10">
-        <v>0.007027226396607344</v>
+        <v>0.5028325754140935</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.66333286412594</v>
+        <v>101.337382</v>
       </c>
       <c r="H11">
-        <v>1.66333286412594</v>
+        <v>304.012146</v>
       </c>
       <c r="I11">
-        <v>0.01630665743047345</v>
+        <v>0.9010377201377272</v>
       </c>
       <c r="J11">
-        <v>0.01630665743047345</v>
+        <v>0.9185187000216628</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.188809412900946</v>
+        <v>0.271596</v>
       </c>
       <c r="N11">
-        <v>0.188809412900946</v>
+        <v>0.814788</v>
       </c>
       <c r="O11">
-        <v>0.001765855969444405</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P11">
-        <v>0.001765855969444405</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q11">
-        <v>0.3140529015344677</v>
+        <v>27.522827601672</v>
       </c>
       <c r="R11">
-        <v>0.3140529015344677</v>
+        <v>247.705448415048</v>
       </c>
       <c r="S11">
-        <v>2.879520836528651E-05</v>
+        <v>0.00224496535597365</v>
       </c>
       <c r="T11">
-        <v>2.879520836528651E-05</v>
+        <v>0.00229076483558676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.66333286412594</v>
+        <v>1.502495333333333</v>
       </c>
       <c r="H12">
-        <v>1.66333286412594</v>
+        <v>4.507486</v>
       </c>
       <c r="I12">
-        <v>0.01630665743047345</v>
+        <v>0.01335938370367848</v>
       </c>
       <c r="J12">
-        <v>0.01630665743047345</v>
+        <v>0.0136185683222204</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.4832128187357</v>
+        <v>0.320495</v>
       </c>
       <c r="N12">
-        <v>47.4832128187357</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O12">
-        <v>0.4440907554135159</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P12">
-        <v>0.4440907554135159</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q12">
-        <v>78.9803883756892</v>
+        <v>0.4815422418566667</v>
       </c>
       <c r="R12">
-        <v>78.9803883756892</v>
+        <v>2.889253451140001</v>
       </c>
       <c r="S12">
-        <v>0.007241635816568376</v>
+        <v>3.927814634643237E-05</v>
       </c>
       <c r="T12">
-        <v>0.007241635816568376</v>
+        <v>2.671963918968495E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.66333286412594</v>
+        <v>1.502495333333333</v>
       </c>
       <c r="H13">
-        <v>1.66333286412594</v>
+        <v>4.507486</v>
       </c>
       <c r="I13">
-        <v>0.01630665743047345</v>
+        <v>0.01335938370367848</v>
       </c>
       <c r="J13">
-        <v>0.01630665743047345</v>
+        <v>0.0136185683222204</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>59.2502954250811</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N13">
-        <v>59.2502954250811</v>
+        <v>0.034127</v>
       </c>
       <c r="O13">
-        <v>0.5541433886170396</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P13">
-        <v>0.5541433886170396</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q13">
-        <v>98.55296358970823</v>
+        <v>0.01709188608022222</v>
       </c>
       <c r="R13">
-        <v>98.55296358970823</v>
+        <v>0.153826974722</v>
       </c>
       <c r="S13">
-        <v>0.009036226405539784</v>
+        <v>1.394140626598124E-06</v>
       </c>
       <c r="T13">
-        <v>0.009036226405539784</v>
+        <v>1.422582453121544E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.53999990671218</v>
+        <v>1.502495333333333</v>
       </c>
       <c r="H14">
-        <v>5.53999990671218</v>
+        <v>4.507486</v>
       </c>
       <c r="I14">
-        <v>0.05431196761153535</v>
+        <v>0.01335938370367848</v>
       </c>
       <c r="J14">
-        <v>0.05431196761153535</v>
+        <v>0.0136185683222204</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.188809412900946</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N14">
-        <v>0.188809412900946</v>
+        <v>146.362926</v>
       </c>
       <c r="O14">
-        <v>0.001765855969444405</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P14">
-        <v>0.001765855969444405</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q14">
-        <v>1.046004129857622</v>
+        <v>73.30320442933734</v>
       </c>
       <c r="R14">
-        <v>1.046004129857622</v>
+        <v>659.7288398640361</v>
       </c>
       <c r="S14">
-        <v>9.59071122191009E-05</v>
+        <v>0.005979151445025198</v>
       </c>
       <c r="T14">
-        <v>9.59071122191009E-05</v>
+        <v>0.006101131957544671</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.53999990671218</v>
+        <v>1.502495333333333</v>
       </c>
       <c r="H15">
-        <v>5.53999990671218</v>
+        <v>4.507486</v>
       </c>
       <c r="I15">
-        <v>0.05431196761153535</v>
+        <v>0.01335938370367848</v>
       </c>
       <c r="J15">
-        <v>0.05431196761153535</v>
+        <v>0.0136185683222204</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.4832128187357</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N15">
-        <v>47.4832128187357</v>
+        <v>178.849414</v>
       </c>
       <c r="O15">
-        <v>0.4440907554135159</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P15">
-        <v>0.4440907554135159</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q15">
-        <v>263.0569945861904</v>
+        <v>89.57346996813376</v>
       </c>
       <c r="R15">
-        <v>263.0569945861904</v>
+        <v>806.161229713204</v>
       </c>
       <c r="S15">
-        <v>0.02411944272460115</v>
+        <v>0.007306274624217403</v>
       </c>
       <c r="T15">
-        <v>0.02411944272460115</v>
+        <v>0.007455329742065537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.502495333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.507486</v>
+      </c>
+      <c r="I16">
+        <v>0.01335938370367848</v>
+      </c>
+      <c r="J16">
+        <v>0.0136185683222204</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.271596</v>
+      </c>
+      <c r="N16">
+        <v>0.814788</v>
+      </c>
+      <c r="O16">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P16">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q16">
+        <v>0.408071722552</v>
+      </c>
+      <c r="R16">
+        <v>3.672645502968</v>
+      </c>
+      <c r="S16">
+        <v>3.328534746284855E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.396440096738642E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.023554</v>
+      </c>
+      <c r="H17">
+        <v>6.070662</v>
+      </c>
+      <c r="I17">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J17">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.320495</v>
+      </c>
+      <c r="N17">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P17">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q17">
+        <v>0.6485389392300001</v>
+      </c>
+      <c r="R17">
+        <v>3.89123363538</v>
+      </c>
+      <c r="S17">
+        <v>5.289963195797521E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.598589064559074E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.023554</v>
+      </c>
+      <c r="H18">
+        <v>6.070662</v>
+      </c>
+      <c r="I18">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J18">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.034127</v>
+      </c>
+      <c r="O18">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P18">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q18">
+        <v>0.023019275786</v>
+      </c>
+      <c r="R18">
+        <v>0.207173482074</v>
+      </c>
+      <c r="S18">
+        <v>1.877622365226519E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.915927690076405E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.023554</v>
+      </c>
+      <c r="H19">
+        <v>6.070662</v>
+      </c>
+      <c r="I19">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J19">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N19">
+        <v>146.362926</v>
+      </c>
+      <c r="O19">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P19">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q19">
+        <v>98.724428119668</v>
+      </c>
+      <c r="R19">
+        <v>888.519853077012</v>
+      </c>
+      <c r="S19">
+        <v>0.008052694444211155</v>
+      </c>
+      <c r="T19">
+        <v>0.008216977253318601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.023554</v>
+      </c>
+      <c r="H20">
+        <v>6.070662</v>
+      </c>
+      <c r="I20">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J20">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N20">
+        <v>178.849414</v>
+      </c>
+      <c r="O20">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P20">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q20">
+        <v>120.637149032452</v>
+      </c>
+      <c r="R20">
+        <v>1085.734341292068</v>
+      </c>
+      <c r="S20">
+        <v>0.009840058010784919</v>
+      </c>
+      <c r="T20">
+        <v>0.01004080477734752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.023554</v>
+      </c>
+      <c r="H21">
+        <v>6.070662</v>
+      </c>
+      <c r="I21">
+        <v>0.01799235826652378</v>
+      </c>
+      <c r="J21">
+        <v>0.01834142695243139</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.271596</v>
+      </c>
+      <c r="N21">
+        <v>0.814788</v>
+      </c>
+      <c r="O21">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P21">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q21">
+        <v>0.5495891721839999</v>
+      </c>
+      <c r="R21">
+        <v>4.946302549655999</v>
+      </c>
+      <c r="S21">
+        <v>4.482855720450626E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.574310342960044E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.547924</v>
+      </c>
+      <c r="I22">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J22">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.320495</v>
+      </c>
+      <c r="N22">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P22">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q22">
+        <v>0.3790306341266667</v>
+      </c>
+      <c r="R22">
+        <v>2.27418380476</v>
+      </c>
+      <c r="S22">
+        <v>3.091654152625649E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.103151272181961E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.547924</v>
+      </c>
+      <c r="I23">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J23">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.034127</v>
+      </c>
+      <c r="O23">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P23">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q23">
+        <v>0.01345333359422222</v>
+      </c>
+      <c r="R23">
+        <v>0.121080002348</v>
+      </c>
+      <c r="S23">
+        <v>1.097353378021035E-06</v>
+      </c>
+      <c r="T23">
+        <v>1.119740455635092E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.547924</v>
+      </c>
+      <c r="I24">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J24">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N24">
+        <v>146.362926</v>
+      </c>
+      <c r="O24">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P24">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q24">
+        <v>57.69828198506934</v>
+      </c>
+      <c r="R24">
+        <v>519.2845378656241</v>
+      </c>
+      <c r="S24">
+        <v>0.004706298568967177</v>
+      </c>
+      <c r="T24">
+        <v>0.00480231164319528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.547924</v>
+      </c>
+      <c r="I25">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J25">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N25">
+        <v>178.849414</v>
+      </c>
+      <c r="O25">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P25">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q25">
+        <v>70.50490314628178</v>
+      </c>
+      <c r="R25">
+        <v>634.544128316536</v>
+      </c>
+      <c r="S25">
+        <v>0.005750901298384934</v>
+      </c>
+      <c r="T25">
+        <v>0.005868225285622214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>1.182641333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.547924</v>
+      </c>
+      <c r="I26">
+        <v>0.01051541326306721</v>
+      </c>
+      <c r="J26">
+        <v>0.01071942217813777</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.271596</v>
+      </c>
+      <c r="N26">
+        <v>0.814788</v>
+      </c>
+      <c r="O26">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P26">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q26">
+        <v>0.321200655568</v>
+      </c>
+      <c r="R26">
+        <v>2.890805900112</v>
+      </c>
+      <c r="S26">
+        <v>2.619950081082437E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.673399614281964E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H27">
+        <v>11.4685</v>
+      </c>
+      <c r="I27">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J27">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.320495</v>
+      </c>
+      <c r="N27">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P27">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q27">
+        <v>1.83779845375</v>
+      </c>
+      <c r="R27">
+        <v>7.351193815</v>
+      </c>
+      <c r="S27">
+        <v>0.0001499044327727451</v>
+      </c>
+      <c r="T27">
+        <v>6.798339075194063E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H28">
+        <v>11.4685</v>
+      </c>
+      <c r="I28">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J28">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.034127</v>
+      </c>
+      <c r="O28">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P28">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q28">
+        <v>0.06523091658333333</v>
+      </c>
+      <c r="R28">
+        <v>0.3913854995</v>
+      </c>
+      <c r="S28">
+        <v>5.320715952131827E-06</v>
+      </c>
+      <c r="T28">
+        <v>3.619509159567977E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H29">
+        <v>11.4685</v>
+      </c>
+      <c r="I29">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J29">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N29">
+        <v>146.362926</v>
+      </c>
+      <c r="O29">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P29">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q29">
+        <v>279.7605361385</v>
+      </c>
+      <c r="R29">
+        <v>1678.563216831</v>
+      </c>
+      <c r="S29">
+        <v>0.02281933821223343</v>
+      </c>
+      <c r="T29">
+        <v>0.01552324995687198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>5.53999990671218</v>
-      </c>
-      <c r="H16">
-        <v>5.53999990671218</v>
-      </c>
-      <c r="I16">
-        <v>0.05431196761153535</v>
-      </c>
-      <c r="J16">
-        <v>0.05431196761153535</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="N16">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="O16">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="P16">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="Q16">
-        <v>328.2466311276184</v>
-      </c>
-      <c r="R16">
-        <v>328.2466311276184</v>
-      </c>
-      <c r="S16">
-        <v>0.0300966177747151</v>
-      </c>
-      <c r="T16">
-        <v>0.0300966177747151</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H30">
+        <v>11.4685</v>
+      </c>
+      <c r="I30">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J30">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N30">
+        <v>178.849414</v>
+      </c>
+      <c r="O30">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P30">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q30">
+        <v>341.8557507431666</v>
+      </c>
+      <c r="R30">
+        <v>2051.134504459</v>
+      </c>
+      <c r="S30">
+        <v>0.02788428312184573</v>
+      </c>
+      <c r="T30">
+        <v>0.01896876643585329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.734249999999999</v>
+      </c>
+      <c r="H31">
+        <v>11.4685</v>
+      </c>
+      <c r="I31">
+        <v>0.0509858794921282</v>
+      </c>
+      <c r="J31">
+        <v>0.03465003569692389</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.271596</v>
+      </c>
+      <c r="N31">
+        <v>0.814788</v>
+      </c>
+      <c r="O31">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P31">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q31">
+        <v>1.557399363</v>
+      </c>
+      <c r="R31">
+        <v>9.344396177999998</v>
+      </c>
+      <c r="S31">
+        <v>0.0001270330093241594</v>
+      </c>
+      <c r="T31">
+        <v>8.641640428710619E-05</v>
       </c>
     </row>
   </sheetData>
